--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,184 +531,184 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.38692460933214</v>
+        <v>3.194648666666667</v>
       </c>
       <c r="H2">
-        <v>2.38692460933214</v>
+        <v>9.583946000000001</v>
       </c>
       <c r="I2">
-        <v>0.0875885403934082</v>
+        <v>0.1104372036365826</v>
       </c>
       <c r="J2">
-        <v>0.0875885403934082</v>
+        <v>0.122064847035162</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.723301091181259</v>
+        <v>0.002858666666666667</v>
       </c>
       <c r="N2">
-        <v>0.723301091181259</v>
+        <v>0.008576</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.002734612344944435</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.004026383705540645</v>
       </c>
       <c r="Q2">
-        <v>1.726465174497337</v>
+        <v>0.009132435655111112</v>
       </c>
       <c r="R2">
-        <v>1.726465174497337</v>
+        <v>0.08219192089600001</v>
       </c>
       <c r="S2">
-        <v>0.0875885403934082</v>
+        <v>0.0003020029404057411</v>
       </c>
       <c r="T2">
-        <v>0.0875885403934082</v>
+        <v>0.0004914799111216877</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.1772260115505</v>
+        <v>3.194648666666667</v>
       </c>
       <c r="H3">
-        <v>16.1772260115505</v>
+        <v>9.583946000000001</v>
       </c>
       <c r="I3">
-        <v>0.5936256253868208</v>
+        <v>0.1104372036365826</v>
       </c>
       <c r="J3">
-        <v>0.5936256253868208</v>
+        <v>0.122064847035162</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.723301091181259</v>
+        <v>0.03298066666666667</v>
       </c>
       <c r="N3">
-        <v>0.723301091181259</v>
+        <v>0.098942</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03154944200483818</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.04645271182294804</v>
       </c>
       <c r="Q3">
-        <v>11.70100522644032</v>
+        <v>0.1053616427924444</v>
       </c>
       <c r="R3">
-        <v>11.70100522644032</v>
+        <v>0.9482547851320001</v>
       </c>
       <c r="S3">
-        <v>0.5936256253868208</v>
+        <v>0.003484232151308866</v>
       </c>
       <c r="T3">
-        <v>0.5936256253868208</v>
+        <v>0.005670243163036616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.103378737851435</v>
+        <v>3.194648666666667</v>
       </c>
       <c r="H4">
-        <v>0.103378737851435</v>
+        <v>9.583946000000001</v>
       </c>
       <c r="I4">
-        <v>0.003793497591301594</v>
+        <v>0.1104372036365826</v>
       </c>
       <c r="J4">
-        <v>0.003793497591301594</v>
+        <v>0.122064847035162</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.723301091181259</v>
+        <v>0.003382666666666667</v>
       </c>
       <c r="N4">
-        <v>0.723301091181259</v>
+        <v>0.010148</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.003235872910039194</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.004764428853058123</v>
       </c>
       <c r="Q4">
-        <v>0.07477395389288426</v>
+        <v>0.01080643155644445</v>
       </c>
       <c r="R4">
-        <v>0.07477395389288426</v>
+        <v>0.09725788400800002</v>
       </c>
       <c r="S4">
-        <v>0.003793497591301594</v>
+        <v>0.0003573607555080995</v>
       </c>
       <c r="T4">
-        <v>0.003793497591301594</v>
+        <v>0.0005815692791584522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,114 +720,1044 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.332801250256418</v>
+        <v>3.194648666666667</v>
       </c>
       <c r="H5">
-        <v>0.332801250256418</v>
+        <v>9.583946000000001</v>
       </c>
       <c r="I5">
-        <v>0.0122121895417623</v>
+        <v>0.1104372036365826</v>
       </c>
       <c r="J5">
-        <v>0.0122121895417623</v>
+        <v>0.122064847035162</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.723301091181259</v>
+        <v>1.0061425</v>
       </c>
       <c r="N5">
-        <v>0.723301091181259</v>
+        <v>2.012285</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9624800727401781</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9447564756184532</v>
       </c>
       <c r="Q5">
-        <v>0.2407155074569544</v>
+        <v>3.214271796101667</v>
       </c>
       <c r="R5">
-        <v>0.2407155074569544</v>
+        <v>19.28563077661</v>
       </c>
       <c r="S5">
-        <v>0.0122121895417623</v>
+        <v>0.1062936077893598</v>
       </c>
       <c r="T5">
-        <v>0.0122121895417623</v>
+        <v>0.1153215546818453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>16.97794966666667</v>
+      </c>
+      <c r="H6">
+        <v>50.93384900000001</v>
+      </c>
+      <c r="I6">
+        <v>0.5869181497900705</v>
+      </c>
+      <c r="J6">
+        <v>0.64871322178746</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.002858666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.008576</v>
+      </c>
+      <c r="O6">
+        <v>0.002734612344944435</v>
+      </c>
+      <c r="P6">
+        <v>0.004026383705540645</v>
+      </c>
+      <c r="Q6">
+        <v>0.04853429878044446</v>
+      </c>
+      <c r="R6">
+        <v>0.4368086890240001</v>
+      </c>
+      <c r="S6">
+        <v>0.001604993617887874</v>
+      </c>
+      <c r="T6">
+        <v>0.002611968345773803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>16.97794966666667</v>
+      </c>
+      <c r="H7">
+        <v>50.93384900000001</v>
+      </c>
+      <c r="I7">
+        <v>0.5869181497900705</v>
+      </c>
+      <c r="J7">
+        <v>0.64871322178746</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.03298066666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.098942</v>
+      </c>
+      <c r="O7">
+        <v>0.03154944200483818</v>
+      </c>
+      <c r="P7">
+        <v>0.04645271182294804</v>
+      </c>
+      <c r="Q7">
+        <v>0.5599440986397779</v>
+      </c>
+      <c r="R7">
+        <v>5.039496887758001</v>
+      </c>
+      <c r="S7">
+        <v>0.01851694012838876</v>
+      </c>
+      <c r="T7">
+        <v>0.03013448834742906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>16.97794966666667</v>
+      </c>
+      <c r="H8">
+        <v>50.93384900000001</v>
+      </c>
+      <c r="I8">
+        <v>0.5869181497900705</v>
+      </c>
+      <c r="J8">
+        <v>0.64871322178746</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.003382666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.010148</v>
+      </c>
+      <c r="O8">
+        <v>0.003235872910039194</v>
+      </c>
+      <c r="P8">
+        <v>0.004764428853058123</v>
+      </c>
+      <c r="Q8">
+        <v>0.0574307444057778</v>
+      </c>
+      <c r="R8">
+        <v>0.5168766996520001</v>
+      </c>
+      <c r="S8">
+        <v>0.001899192541316015</v>
+      </c>
+      <c r="T8">
+        <v>0.003090747991244468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16.97794966666667</v>
+      </c>
+      <c r="H9">
+        <v>50.93384900000001</v>
+      </c>
+      <c r="I9">
+        <v>0.5869181497900705</v>
+      </c>
+      <c r="J9">
+        <v>0.64871322178746</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.0061425</v>
+      </c>
+      <c r="N9">
+        <v>2.012285</v>
+      </c>
+      <c r="O9">
+        <v>0.9624800727401781</v>
+      </c>
+      <c r="P9">
+        <v>0.9447564756184532</v>
+      </c>
+      <c r="Q9">
+        <v>17.08223672249417</v>
+      </c>
+      <c r="R9">
+        <v>102.493420334965</v>
+      </c>
+      <c r="S9">
+        <v>0.5648970235024778</v>
+      </c>
+      <c r="T9">
+        <v>0.6128760171030128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1410116666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.423035</v>
+      </c>
+      <c r="I10">
+        <v>0.004874693830745885</v>
+      </c>
+      <c r="J10">
+        <v>0.005387937553646458</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.002858666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.008576</v>
+      </c>
+      <c r="O10">
+        <v>0.002734612344944435</v>
+      </c>
+      <c r="P10">
+        <v>0.004026383705540645</v>
+      </c>
+      <c r="Q10">
+        <v>0.0004031053511111112</v>
+      </c>
+      <c r="R10">
+        <v>0.00362794816</v>
+      </c>
+      <c r="S10">
+        <v>1.333039792738217E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.169390397247262E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1410116666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.423035</v>
+      </c>
+      <c r="I11">
+        <v>0.004874693830745885</v>
+      </c>
+      <c r="J11">
+        <v>0.005387937553646458</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.03298066666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.098942</v>
+      </c>
+      <c r="O11">
+        <v>0.03154944200483818</v>
+      </c>
+      <c r="P11">
+        <v>0.04645271182294804</v>
+      </c>
+      <c r="Q11">
+        <v>0.004650658774444445</v>
+      </c>
+      <c r="R11">
+        <v>0.04185592897</v>
+      </c>
+      <c r="S11">
+        <v>0.0001537938703044598</v>
+      </c>
+      <c r="T11">
+        <v>0.0002502843104995786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1410116666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.423035</v>
+      </c>
+      <c r="I12">
+        <v>0.004874693830745885</v>
+      </c>
+      <c r="J12">
+        <v>0.005387937553646458</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.003382666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.010148</v>
+      </c>
+      <c r="O12">
+        <v>0.003235872910039194</v>
+      </c>
+      <c r="P12">
+        <v>0.004764428853058123</v>
+      </c>
+      <c r="Q12">
+        <v>0.0004769954644444445</v>
+      </c>
+      <c r="R12">
+        <v>0.00429295918</v>
+      </c>
+      <c r="S12">
+        <v>1.577388971164579E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.567044513906858E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>8.251232193759179</v>
-      </c>
-      <c r="H6">
-        <v>8.251232193759179</v>
-      </c>
-      <c r="I6">
-        <v>0.302780147086707</v>
-      </c>
-      <c r="J6">
-        <v>0.302780147086707</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.723301091181259</v>
-      </c>
-      <c r="N6">
-        <v>0.723301091181259</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>5.968125249335947</v>
-      </c>
-      <c r="R6">
-        <v>5.968125249335947</v>
-      </c>
-      <c r="S6">
-        <v>0.302780147086707</v>
-      </c>
-      <c r="T6">
-        <v>0.302780147086707</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1410116666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.423035</v>
+      </c>
+      <c r="I13">
+        <v>0.004874693830745885</v>
+      </c>
+      <c r="J13">
+        <v>0.005387937553646458</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.0061425</v>
+      </c>
+      <c r="N13">
+        <v>2.012285</v>
+      </c>
+      <c r="O13">
+        <v>0.9624800727401781</v>
+      </c>
+      <c r="P13">
+        <v>0.9447564756184532</v>
+      </c>
+      <c r="Q13">
+        <v>0.1418778308291667</v>
+      </c>
+      <c r="R13">
+        <v>0.851266984975</v>
+      </c>
+      <c r="S13">
+        <v>0.004691795672802397</v>
+      </c>
+      <c r="T13">
+        <v>0.005090288894035339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3470173333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.041052</v>
+      </c>
+      <c r="I14">
+        <v>0.01199619360545975</v>
+      </c>
+      <c r="J14">
+        <v>0.01325924135378574</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.002858666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.008576</v>
+      </c>
+      <c r="O14">
+        <v>0.002734612344944435</v>
+      </c>
+      <c r="P14">
+        <v>0.004026383705540645</v>
+      </c>
+      <c r="Q14">
+        <v>0.0009920068835555555</v>
+      </c>
+      <c r="R14">
+        <v>0.008928061951999999</v>
+      </c>
+      <c r="S14">
+        <v>3.280493912583371E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.33867933347136E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3470173333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.041052</v>
+      </c>
+      <c r="I15">
+        <v>0.01199619360545975</v>
+      </c>
+      <c r="J15">
+        <v>0.01325924135378574</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.03298066666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.098942</v>
+      </c>
+      <c r="O15">
+        <v>0.03154944200483818</v>
+      </c>
+      <c r="P15">
+        <v>0.04645271182294804</v>
+      </c>
+      <c r="Q15">
+        <v>0.01144486299822222</v>
+      </c>
+      <c r="R15">
+        <v>0.103003766984</v>
+      </c>
+      <c r="S15">
+        <v>0.0003784732144342629</v>
+      </c>
+      <c r="T15">
+        <v>0.0006159277175983247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3470173333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.041052</v>
+      </c>
+      <c r="I16">
+        <v>0.01199619360545975</v>
+      </c>
+      <c r="J16">
+        <v>0.01325924135378574</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.003382666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.010148</v>
+      </c>
+      <c r="O16">
+        <v>0.003235872910039194</v>
+      </c>
+      <c r="P16">
+        <v>0.004764428853058123</v>
+      </c>
+      <c r="Q16">
+        <v>0.001173843966222222</v>
+      </c>
+      <c r="R16">
+        <v>0.010564595696</v>
+      </c>
+      <c r="S16">
+        <v>3.88181579114926E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.317271207563824E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3470173333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.041052</v>
+      </c>
+      <c r="I17">
+        <v>0.01199619360545975</v>
+      </c>
+      <c r="J17">
+        <v>0.01325924135378574</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.0061425</v>
+      </c>
+      <c r="N17">
+        <v>2.012285</v>
+      </c>
+      <c r="O17">
+        <v>0.9624800727401781</v>
+      </c>
+      <c r="P17">
+        <v>0.9447564756184532</v>
+      </c>
+      <c r="Q17">
+        <v>0.3491488873033333</v>
+      </c>
+      <c r="R17">
+        <v>2.09489332382</v>
+      </c>
+      <c r="S17">
+        <v>0.01154609729398816</v>
+      </c>
+      <c r="T17">
+        <v>0.01252675413077707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.266659499999999</v>
+      </c>
+      <c r="H18">
+        <v>16.533319</v>
+      </c>
+      <c r="I18">
+        <v>0.2857737591371413</v>
+      </c>
+      <c r="J18">
+        <v>0.2105747522699458</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.002858666666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.008576</v>
+      </c>
+      <c r="O18">
+        <v>0.002734612344944435</v>
+      </c>
+      <c r="P18">
+        <v>0.004026383705540645</v>
+      </c>
+      <c r="Q18">
+        <v>0.02363162395733334</v>
+      </c>
+      <c r="R18">
+        <v>0.141789743744</v>
+      </c>
+      <c r="S18">
+        <v>0.000781480449597604</v>
+      </c>
+      <c r="T18">
+        <v>0.0008478547513379675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.266659499999999</v>
+      </c>
+      <c r="H19">
+        <v>16.533319</v>
+      </c>
+      <c r="I19">
+        <v>0.2857737591371413</v>
+      </c>
+      <c r="J19">
+        <v>0.2105747522699458</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03298066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.098942</v>
+      </c>
+      <c r="O19">
+        <v>0.03154944200483818</v>
+      </c>
+      <c r="P19">
+        <v>0.04645271182294804</v>
+      </c>
+      <c r="Q19">
+        <v>0.2726399414163333</v>
+      </c>
+      <c r="R19">
+        <v>1.635839648498</v>
+      </c>
+      <c r="S19">
+        <v>0.009016002640401834</v>
+      </c>
+      <c r="T19">
+        <v>0.009781768284384465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.266659499999999</v>
+      </c>
+      <c r="H20">
+        <v>16.533319</v>
+      </c>
+      <c r="I20">
+        <v>0.2857737591371413</v>
+      </c>
+      <c r="J20">
+        <v>0.2105747522699458</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.003382666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.010148</v>
+      </c>
+      <c r="O20">
+        <v>0.003235872910039194</v>
+      </c>
+      <c r="P20">
+        <v>0.004764428853058123</v>
+      </c>
+      <c r="Q20">
+        <v>0.02796335353533333</v>
+      </c>
+      <c r="R20">
+        <v>0.167780121212</v>
+      </c>
+      <c r="S20">
+        <v>0.000924727565591941</v>
+      </c>
+      <c r="T20">
+        <v>0.001003268425440496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.266659499999999</v>
+      </c>
+      <c r="H21">
+        <v>16.533319</v>
+      </c>
+      <c r="I21">
+        <v>0.2857737591371413</v>
+      </c>
+      <c r="J21">
+        <v>0.2105747522699458</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.0061425</v>
+      </c>
+      <c r="N21">
+        <v>2.012285</v>
+      </c>
+      <c r="O21">
+        <v>0.9624800727401781</v>
+      </c>
+      <c r="P21">
+        <v>0.9447564756184532</v>
+      </c>
+      <c r="Q21">
+        <v>8.317437455978748</v>
+      </c>
+      <c r="R21">
+        <v>33.26974982391499</v>
+      </c>
+      <c r="S21">
+        <v>0.2750515484815498</v>
+      </c>
+      <c r="T21">
+        <v>0.1989418608087828</v>
       </c>
     </row>
   </sheetData>
